--- a/BUKU/testCase.xlsx
+++ b/BUKU/testCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>Fitur Sejarah Kita</t>
   </si>
@@ -269,6 +269,96 @@
   </si>
   <si>
     <t>Pengujian pada layar 420dpi (XXHDPI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewistic Interuption Testing testing </t>
+  </si>
+  <si>
+    <t>Membuka tiap jenis tab Review dan dilakukan sleep saat pergantian</t>
+  </si>
+  <si>
+    <t>aplikasi berjalan dengan lancar hingga akhir pengujian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewistic Feature Testing testing </t>
+  </si>
+  <si>
+    <t>countReviewsEachTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah seluruh review sesuai </t>
+  </si>
+  <si>
+    <t>countReviewsEachTabAfterRefresh</t>
+  </si>
+  <si>
+    <t>jumlah seluruh review setelah dilakuakn refresh sesuai</t>
+  </si>
+  <si>
+    <t>searchTransactionWithID14</t>
+  </si>
+  <si>
+    <t>transaksi dengan id #14 muncul</t>
+  </si>
+  <si>
+    <t>searchTransactionWithPrefix1</t>
+  </si>
+  <si>
+    <t>transaksi dengan awalan id #1 muncul (1, 10 ,11 , 12, 14)</t>
+  </si>
+  <si>
+    <t>validateReviewedTransactionData</t>
+  </si>
+  <si>
+    <t>data transaksi terivew yang ditampilkan sesuai dengan data</t>
+  </si>
+  <si>
+    <t>validateUnreviewedTransactionData</t>
+  </si>
+  <si>
+    <t>data transaksi belum terivew yang ditampilkan sesuai dengan data</t>
+  </si>
+  <si>
+    <t>validateDetailTransaction</t>
+  </si>
+  <si>
+    <t>Jumlah detail transaksi yang ada di database dan di aplikasi</t>
+  </si>
+  <si>
+    <t>addPromowithEmptyField</t>
+  </si>
+  <si>
+    <t>Muncul error saat menginput promo dengan field kosong</t>
+  </si>
+  <si>
+    <t>addPromoWithEmptyDesc</t>
+  </si>
+  <si>
+    <t>Muncul error saat menginput promo dengan field deskripsi kosong</t>
+  </si>
+  <si>
+    <t>addPromoWithEmptyName</t>
+  </si>
+  <si>
+    <t>Muncul error saat menginput promo dengan field nama kosong</t>
+  </si>
+  <si>
+    <t>addPromoWithInvalidDate</t>
+  </si>
+  <si>
+    <t>Muncul error saat menginput promo dengan field data yang melebihi kadaluarsa</t>
+  </si>
+  <si>
+    <t>successAddPromo</t>
+  </si>
+  <si>
+    <t>Promo yang ditambahkan muncul pada list promo</t>
+  </si>
+  <si>
+    <t>validateTransactionInsertedPromo</t>
+  </si>
+  <si>
+    <t>Data transaksi yang terdapat pada promo baru adalah 0</t>
   </si>
 </sst>
 </file>
@@ -276,12 +366,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +386,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -303,16 +405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,10 +444,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,34 +475,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,6 +498,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -419,15 +520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,187 +586,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,21 +838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,13 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,12 +924,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,134 +958,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,11 +1140,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1364,10 +1474,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:I101"/>
+  <dimension ref="B4:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D108" sqref="B106:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2007,53 +2117,245 @@
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="19">
+      <c r="B100" s="9">
         <v>1</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="19">
+      <c r="B101" s="9">
         <v>2</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="9" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" ht="28.8" spans="2:4">
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" ht="28.8" spans="2:4">
+      <c r="B114" s="5">
+        <v>2</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="5">
+        <v>3</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" ht="28.8" spans="2:4">
+      <c r="B116" s="5">
+        <v>4</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" ht="28.8" spans="2:4">
+      <c r="B117" s="5">
+        <v>5</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" ht="28.8" spans="2:4">
+      <c r="B118" s="5">
+        <v>6</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" ht="28.8" spans="2:4">
+      <c r="B119" s="5">
+        <v>7</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" ht="28.8" spans="2:4">
+      <c r="B120" s="5">
+        <v>8</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" ht="28.8" spans="2:4">
+      <c r="B121" s="5">
+        <v>9</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" ht="28.8" spans="2:4">
+      <c r="B122" s="5">
+        <v>10</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" ht="43.2" spans="2:4">
+      <c r="B123" s="5">
+        <v>11</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" ht="28.8" spans="2:4">
+      <c r="B124" s="5">
+        <v>12</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" ht="28.8" spans="2:4">
+      <c r="B125" s="5">
+        <v>13</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B111:D111"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BUKU/testCase.xlsx
+++ b/BUKU/testCase.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9875"/>
+    <workbookView windowWidth="23028" windowHeight="9875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SejarahKita" sheetId="2" r:id="rId2"/>
+    <sheet name="Webview App" sheetId="3" r:id="rId3"/>
+    <sheet name="Webview Test" sheetId="4" r:id="rId4"/>
+    <sheet name="Reviewistic" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="160">
   <si>
     <t>Fitur Sejarah Kita</t>
   </si>
@@ -359,6 +363,141 @@
   </si>
   <si>
     <t>Data transaksi yang terdapat pada promo baru adalah 0</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Login with empty field</t>
+  </si>
+  <si>
+    <t>Showing error Toast</t>
+  </si>
+  <si>
+    <t>Login with empty email</t>
+  </si>
+  <si>
+    <t>login with empty password</t>
+  </si>
+  <si>
+    <t>login with wrong email</t>
+  </si>
+  <si>
+    <t>login wrong password</t>
+  </si>
+  <si>
+    <t>login using banned account</t>
+  </si>
+  <si>
+    <t>redirected to home fragment</t>
+  </si>
+  <si>
+    <t>Fill empty register form</t>
+  </si>
+  <si>
+    <t>Cancel Easy game</t>
+  </si>
+  <si>
+    <t>Cancel Hard Game</t>
+  </si>
+  <si>
+    <t>Cancel Casual game</t>
+  </si>
+  <si>
+    <t>Play easy mode without wrong answer</t>
+  </si>
+  <si>
+    <t>showing game result and score count is correct</t>
+  </si>
+  <si>
+    <t>Play hard mode without wrong answer</t>
+  </si>
+  <si>
+    <t>Play casual mode without wrong answer and not using help</t>
+  </si>
+  <si>
+    <t>Play casual mode without wrong answer and using help</t>
+  </si>
+  <si>
+    <t>Play easy mode and answer 11 question</t>
+  </si>
+  <si>
+    <t>PLay hard mode and answer 11 question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">play casual mode using signal FULL </t>
+  </si>
+  <si>
+    <t>scenario from login , play , and logout succeed</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  LTE</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  EVDO</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  HSDPA</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  UMTS</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  EDGE</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  GPRS</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  SCSD</t>
+  </si>
+  <si>
+    <t>play casual mode using signal  GSM</t>
+  </si>
+  <si>
+    <t>install app when device still not installed the app</t>
+  </si>
+  <si>
+    <t>get the package of sejarah kita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">launch application and try to login </t>
+  </si>
+  <si>
+    <t>app is opened and login flow is succeed</t>
+  </si>
+  <si>
+    <t>uninstall the app</t>
+  </si>
+  <si>
+    <t>package of sejarah kita fully removed from device</t>
+  </si>
+  <si>
+    <t>Play casual game using landscape mode</t>
+  </si>
+  <si>
+    <t>Play casual and receiving 5% low batt notification</t>
+  </si>
+  <si>
+    <t>Play casual with lock device interuption</t>
+  </si>
+  <si>
+    <t>Play casual and receiving phone call notification</t>
+  </si>
+  <si>
+    <t>Play casual while receiving incoming phone call</t>
+  </si>
+  <si>
+    <t>Play casual and receiving SMS notification</t>
+  </si>
+  <si>
+    <t>Play casual and opening SMS application</t>
+  </si>
+  <si>
+    <t>after opening the sms , back to game and continue playing.showing game result and score count is correct</t>
   </si>
 </sst>
 </file>
@@ -366,10 +505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -392,21 +531,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +548,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,9 +584,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,10 +599,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,11 +614,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,13 +645,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -513,6 +652,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -527,13 +673,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -592,187 +731,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,16 +1017,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,16 +1041,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,15 +1079,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,10 +1097,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,119 +1112,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,11 +1249,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,6 +1279,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,9 +1298,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1476,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="B4:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D108" sqref="B106:D108"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1715,7 +1860,9 @@
       </c>
     </row>
     <row r="24" ht="28.8" spans="2:4">
-      <c r="B24" s="5"/>
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1724,11 +1871,11 @@
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
@@ -1841,26 +1988,26 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="9">
+      <c r="B49" s="19">
         <v>10</v>
       </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1898,115 +2045,115 @@
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="16">
+      <c r="B69" s="17">
         <v>1</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="16">
+      <c r="B70" s="17">
         <v>2</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="16">
+      <c r="B71" s="17">
         <v>3</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="16">
+      <c r="B72" s="17">
         <v>4</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="73" ht="28.8" spans="2:4">
-      <c r="B73" s="16">
+      <c r="B73" s="17">
         <v>5</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="16">
+      <c r="B74" s="17">
         <v>6</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="16">
+      <c r="B75" s="17">
         <v>7</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2088,20 +2235,20 @@
       </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2117,60 +2264,60 @@
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="9">
+      <c r="B100" s="19">
         <v>1</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="9">
+      <c r="B101" s="19">
         <v>2</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2186,20 +2333,20 @@
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2207,7 +2354,7 @@
       <c r="B113" s="5">
         <v>1</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -2218,7 +2365,7 @@
       <c r="B114" s="5">
         <v>2</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -2229,7 +2376,7 @@
       <c r="B115" s="5">
         <v>3</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -2240,7 +2387,7 @@
       <c r="B116" s="5">
         <v>4</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -2251,7 +2398,7 @@
       <c r="B117" s="5">
         <v>5</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -2262,7 +2409,7 @@
       <c r="B118" s="5">
         <v>6</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -2284,10 +2431,10 @@
       <c r="B120" s="5">
         <v>8</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2295,10 +2442,10 @@
       <c r="B121" s="5">
         <v>9</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2306,10 +2453,10 @@
       <c r="B122" s="5">
         <v>10</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2317,10 +2464,10 @@
       <c r="B123" s="5">
         <v>11</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2328,10 +2475,10 @@
       <c r="B124" s="5">
         <v>12</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2339,10 +2486,10 @@
       <c r="B125" s="5">
         <v>13</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2360,4 +2507,571 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C4:E75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.4" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="15.0462962962963" customWidth="1"/>
+    <col min="3" max="3" width="5.03703703703704" customWidth="1"/>
+    <col min="4" max="4" width="54.8703703703704" customWidth="1"/>
+    <col min="5" max="5" width="41.9537037037037" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" customHeight="1" spans="3:5">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:5">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:5">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:5">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:5">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:5">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:5">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:5">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
+      <c r="C18" s="5">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
+      <c r="C19" s="5">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
+      <c r="C21" s="5">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
+      <c r="C22" s="5">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
+      <c r="C23" s="5">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
+      <c r="C24" s="5">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
+      <c r="C38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
+      <c r="C39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
+      <c r="C44" s="5">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
+      <c r="C45" s="5">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
+      <c r="C46" s="5">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
+      <c r="C47" s="5">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
+      <c r="C48" s="5">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
+      <c r="C59" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
+      <c r="C60" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
+      <c r="C63" s="5">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:5">
+      <c r="C67" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" customHeight="1" spans="3:5">
+      <c r="C68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:5">
+      <c r="C69" s="17">
+        <v>1</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
+      <c r="C70" s="17">
+        <v>2</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
+      <c r="C71" s="17">
+        <v>3</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:5">
+      <c r="C72" s="17">
+        <v>4</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
+      <c r="C73" s="17">
+        <v>5</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
+      <c r="C74" s="17">
+        <v>6</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" ht="48" customHeight="1" spans="3:5">
+      <c r="C75" s="17">
+        <v>7</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C67:E67"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>